--- a/doc/版本记录.xlsx
+++ b/doc/版本记录.xlsx
@@ -81,14 +81,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>上线基础版本发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 当日已打卡项目直接显示到界面，而不是等到扫码后才提示
 2. 管理员增加“删除组员”操作
 3. 增加网络异常情况的补流机制
-4. 针对足球档期可变化情况的方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上线基础版本发布</t>
+4. 针对足球档期可变化情况的方案
+5. 管理员界面新增组员录入到数据库时少了department和sports</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,12 +563,12 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
